--- a/Data/domestic_residents.xlsx
+++ b/Data/domestic_residents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\RPA_CreditCardApproval\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62D7931-5083-4AB2-9080-B8E46C485C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7773F65E-AB7F-49EA-8BC7-218836DE63FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E97AD6F-C8ED-41E8-A99D-529865D1ED40}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>Lý Đức An</t>
   </si>
   <si>
-    <t>160 Ly Thuong Kiet, Dong Da, TP Ho Chi Minh, Viet Nam</t>
-  </si>
-  <si>
     <t>14/05/2022</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>2 Nguyen Trai, Quan 7, TP Ho Chi Minh, Viet Nam</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,7 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,7 +724,7 @@
     <col min="4" max="4" width="28.109375" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="34.33203125" customWidth="1"/>
+    <col min="7" max="7" width="52.5546875" customWidth="1"/>
     <col min="8" max="12" width="14.6640625" customWidth="1"/>
     <col min="13" max="13" width="20.44140625" customWidth="1"/>
     <col min="14" max="15" width="14.6640625" customWidth="1"/>
@@ -1021,7 +1021,7 @@
         <v>33763</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>14</v>
@@ -1051,7 +1051,7 @@
         <v>12646406653</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="10">
         <v>49010</v>
@@ -1060,13 +1060,13 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
@@ -1099,19 +1099,19 @@
         <v>44110</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>14</v>
@@ -1141,22 +1141,22 @@
         <v>51345661305</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
@@ -1186,22 +1186,22 @@
         <v>37066501525</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="F11" s="10">
         <v>36502</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>14</v>
@@ -1240,13 +1240,13 @@
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
@@ -1276,7 +1276,7 @@
         <v>84738508014</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="10">
         <v>51452</v>
@@ -1285,13 +1285,13 @@
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>14</v>
@@ -1321,22 +1321,22 @@
         <v>8782117608</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="10">
         <v>35590</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>14</v>
@@ -1368,19 +1368,19 @@
         <v>44603</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>14</v>

--- a/Data/domestic_residents.xlsx
+++ b/Data/domestic_residents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\UiPath\Final\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CAMTU\UEL\HK1_2526\Final_RPA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89A24A4-A854-46E1-895C-6B04579B2D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10A5361-AF1E-4E2D-A51B-A339D97B95F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6273,10 +6273,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6583,7 +6586,7 @@
   <dimension ref="A1:H427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6643,7 +6646,7 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
